--- a/auliabaru/masuk/modul/mod_lapstok/stok_opname_bulanan.xlsx
+++ b/auliabaru/masuk/modul/mod_lapstok/stok_opname_bulanan.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t xml:space="preserve">STOK OPNAME BULANAN </t>
   </si>
   <si>
-    <t>Tanggal: 27 Oktober 2025 s/d d  unde</t>
+    <t>Tanggal: 03 Juni 2025 s/d d  unde</t>
   </si>
   <si>
     <t>No.</t>
@@ -51,6 +51,57 @@
   </si>
   <si>
     <t>Acc Manager</t>
+  </si>
+  <si>
+    <t>'0002054561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alprazolam </t>
+  </si>
+  <si>
+    <t>strip</t>
+  </si>
+  <si>
+    <t>65,000</t>
+  </si>
+  <si>
+    <t>21:22:46</t>
+  </si>
+  <si>
+    <t>'003215364168547</t>
+  </si>
+  <si>
+    <t>Analsik tablet/biji psikotropika</t>
+  </si>
+  <si>
+    <t>3,450</t>
+  </si>
+  <si>
+    <t>'11425255</t>
+  </si>
+  <si>
+    <t>BRAXIDIN TAB/BIJI PSIKOTROPIKA</t>
+  </si>
+  <si>
+    <t>4,500</t>
+  </si>
+  <si>
+    <t>'7854621</t>
+  </si>
+  <si>
+    <t>CODEIN TABLET (NARKOTIKA)/BIJIAN</t>
+  </si>
+  <si>
+    <t>blister</t>
+  </si>
+  <si>
+    <t>'9485</t>
+  </si>
+  <si>
+    <t>VALISANBE 2 MG (PSIKOTROPIKA)</t>
+  </si>
+  <si>
+    <t>3,000</t>
   </si>
 </sst>
 </file>
@@ -89,10 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -104,8 +158,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Table1" ref="A4:J5" headerRowCount="1" totalsRowCount="0">
-  <autoFilter ref="A4:J5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Table1" ref="A4:J10" headerRowCount="1" totalsRowCount="0">
+  <autoFilter ref="A4:J10"/>
   <tableColumns count="10">
     <tableColumn id="1" name="No."/>
     <tableColumn id="2" name="Kode"/>
@@ -412,13 +466,24 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="38.848" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" customWidth="true" style="0"/>
+    <col min="10" max="10" width="18.71" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -461,6 +526,136 @@
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>160</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>170</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>524</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>474</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9"/>
     </row>
   </sheetData>
   <mergeCells>
